--- a/Paolo/Scripts/Bases/dfunido2.xlsx
+++ b/Paolo/Scripts/Bases/dfunido2.xlsx
@@ -17,7 +17,7 @@
     <sheet name="leyenda" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$T$435</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$Z$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -2461,10 +2461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:T435"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B291" sqref="B291"/>
     </sheetView>
   </sheetViews>
@@ -2553,7 +2554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2671,7 +2672,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2733,7 +2734,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -2795,7 +2796,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -2857,7 +2858,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -2913,7 +2914,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -2969,7 +2970,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -3025,7 +3026,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -3081,7 +3082,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>4</v>
       </c>
@@ -3137,7 +3138,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -3255,7 +3256,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>4</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>4</v>
       </c>
@@ -3370,7 +3371,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>4</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>4</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>4</v>
       </c>
@@ -3538,7 +3539,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>4</v>
       </c>
@@ -3597,7 +3598,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -3656,7 +3657,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>4</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -3774,7 +3775,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -3830,7 +3831,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>4</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>4</v>
       </c>
@@ -3942,7 +3943,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>4</v>
       </c>
@@ -4001,7 +4002,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>4</v>
       </c>
@@ -4060,7 +4061,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>4</v>
       </c>
@@ -4119,7 +4120,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>4</v>
       </c>
@@ -4178,7 +4179,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>6</v>
       </c>
@@ -4234,7 +4235,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>11</v>
       </c>
@@ -4290,7 +4291,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>13</v>
       </c>
@@ -4346,7 +4347,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>18</v>
       </c>
@@ -4405,7 +4406,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -4464,7 +4465,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>18</v>
       </c>
@@ -4523,7 +4524,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>18</v>
       </c>
@@ -4582,7 +4583,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>20</v>
       </c>
@@ -4638,7 +4639,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>20</v>
       </c>
@@ -4694,7 +4695,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>20</v>
       </c>
@@ -4750,7 +4751,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>22</v>
       </c>
@@ -4806,7 +4807,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>24</v>
       </c>
@@ -4865,7 +4866,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>24</v>
       </c>
@@ -4924,7 +4925,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>24</v>
       </c>
@@ -4983,7 +4984,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>24</v>
       </c>
@@ -5042,7 +5043,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>25</v>
       </c>
@@ -5098,7 +5099,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>25</v>
       </c>
@@ -5154,7 +5155,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>25</v>
       </c>
@@ -5210,7 +5211,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>25</v>
       </c>
@@ -5266,7 +5267,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>25</v>
       </c>
@@ -5322,7 +5323,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>25</v>
       </c>
@@ -5378,7 +5379,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>25</v>
       </c>
@@ -5434,7 +5435,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>25</v>
       </c>
@@ -5490,7 +5491,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>25</v>
       </c>
@@ -5546,7 +5547,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>25</v>
       </c>
@@ -5602,7 +5603,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>26</v>
       </c>
@@ -5658,7 +5659,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>27</v>
       </c>
@@ -5714,7 +5715,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>30</v>
       </c>
@@ -5770,7 +5771,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>30</v>
       </c>
@@ -5826,7 +5827,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>30</v>
       </c>
@@ -5882,7 +5883,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>30</v>
       </c>
@@ -5938,7 +5939,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>31</v>
       </c>
@@ -5994,7 +5995,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>31</v>
       </c>
@@ -6050,7 +6051,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>31</v>
       </c>
@@ -6106,7 +6107,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>31</v>
       </c>
@@ -6162,7 +6163,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>31</v>
       </c>
@@ -6218,7 +6219,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>31</v>
       </c>
@@ -6274,7 +6275,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>31</v>
       </c>
@@ -6330,7 +6331,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>33</v>
       </c>
@@ -6386,7 +6387,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>34</v>
       </c>
@@ -6442,7 +6443,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>34</v>
       </c>
@@ -6498,7 +6499,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>36</v>
       </c>
@@ -6557,7 +6558,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>36</v>
       </c>
@@ -6616,7 +6617,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>36</v>
       </c>
@@ -6672,7 +6673,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>38</v>
       </c>
@@ -6728,7 +6729,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>38</v>
       </c>
@@ -6784,7 +6785,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>38</v>
       </c>
@@ -6840,7 +6841,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>40</v>
       </c>
@@ -6899,7 +6900,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>40</v>
       </c>
@@ -6958,7 +6959,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>40</v>
       </c>
@@ -7017,7 +7018,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>40</v>
       </c>
@@ -7076,7 +7077,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>40</v>
       </c>
@@ -7132,7 +7133,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>41</v>
       </c>
@@ -7188,7 +7189,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>41</v>
       </c>
@@ -7244,7 +7245,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>41</v>
       </c>
@@ -7300,7 +7301,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>41</v>
       </c>
@@ -7356,7 +7357,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>41</v>
       </c>
@@ -7412,7 +7413,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>41</v>
       </c>
@@ -7468,7 +7469,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>41</v>
       </c>
@@ -7524,7 +7525,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>41</v>
       </c>
@@ -7580,7 +7581,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>41</v>
       </c>
@@ -7636,7 +7637,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>41</v>
       </c>
@@ -7692,7 +7693,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>41</v>
       </c>
@@ -7748,7 +7749,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>41</v>
       </c>
@@ -7804,7 +7805,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>41</v>
       </c>
@@ -7860,7 +7861,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>41</v>
       </c>
@@ -7916,7 +7917,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>41</v>
       </c>
@@ -7972,7 +7973,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>41</v>
       </c>
@@ -8028,7 +8029,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>41</v>
       </c>
@@ -8084,7 +8085,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>41</v>
       </c>
@@ -8140,7 +8141,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>41</v>
       </c>
@@ -8196,7 +8197,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>41</v>
       </c>
@@ -8252,7 +8253,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>41</v>
       </c>
@@ -8308,7 +8309,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>41</v>
       </c>
@@ -8364,7 +8365,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>41</v>
       </c>
@@ -8420,7 +8421,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>41</v>
       </c>
@@ -8476,7 +8477,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>41</v>
       </c>
@@ -8532,7 +8533,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>41</v>
       </c>
@@ -8588,7 +8589,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>41</v>
       </c>
@@ -8647,7 +8648,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>41</v>
       </c>
@@ -8706,7 +8707,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>41</v>
       </c>
@@ -8765,7 +8766,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>41</v>
       </c>
@@ -8824,7 +8825,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>41</v>
       </c>
@@ -8883,7 +8884,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>41</v>
       </c>
@@ -8942,7 +8943,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>41</v>
       </c>
@@ -9001,7 +9002,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>41</v>
       </c>
@@ -9060,7 +9061,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>41</v>
       </c>
@@ -9119,7 +9120,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>41</v>
       </c>
@@ -9178,7 +9179,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>41</v>
       </c>
@@ -9237,7 +9238,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>41</v>
       </c>
@@ -9296,7 +9297,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>41</v>
       </c>
@@ -9355,7 +9356,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>41</v>
       </c>
@@ -9414,7 +9415,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>41</v>
       </c>
@@ -9473,7 +9474,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>41</v>
       </c>
@@ -9532,7 +9533,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>41</v>
       </c>
@@ -9591,7 +9592,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>41</v>
       </c>
@@ -9647,7 +9648,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>41</v>
       </c>
@@ -9703,7 +9704,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>41</v>
       </c>
@@ -9762,7 +9763,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>41</v>
       </c>
@@ -9821,7 +9822,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>41</v>
       </c>
@@ -9880,7 +9881,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>41</v>
       </c>
@@ -9939,7 +9940,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>41</v>
       </c>
@@ -9998,7 +9999,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>41</v>
       </c>
@@ -10057,7 +10058,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>48</v>
       </c>
@@ -10113,7 +10114,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>1</v>
       </c>
@@ -10169,7 +10170,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>2</v>
       </c>
@@ -10225,7 +10226,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>2</v>
       </c>
@@ -10281,7 +10282,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>2</v>
       </c>
@@ -10337,7 +10338,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>4</v>
       </c>
@@ -10393,7 +10394,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>4</v>
       </c>
@@ -10449,7 +10450,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>4</v>
       </c>
@@ -10508,7 +10509,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>4</v>
       </c>
@@ -10567,7 +10568,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>4</v>
       </c>
@@ -10626,7 +10627,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>4</v>
       </c>
@@ -10685,7 +10686,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>4</v>
       </c>
@@ -10744,7 +10745,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>4</v>
       </c>
@@ -10803,7 +10804,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>4</v>
       </c>
@@ -10862,7 +10863,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>4</v>
       </c>
@@ -10921,7 +10922,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>4</v>
       </c>
@@ -10980,7 +10981,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="10">
         <v>7</v>
       </c>
@@ -11036,7 +11037,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="10">
         <v>7</v>
       </c>
@@ -11092,7 +11093,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="10">
         <v>7</v>
       </c>
@@ -11148,7 +11149,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="10">
         <v>7</v>
       </c>
@@ -11204,7 +11205,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="10">
         <v>7</v>
       </c>
@@ -11260,7 +11261,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>11</v>
       </c>
@@ -11316,7 +11317,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>12</v>
       </c>
@@ -11372,7 +11373,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>12</v>
       </c>
@@ -11428,7 +11429,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>12</v>
       </c>
@@ -11484,7 +11485,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>12</v>
       </c>
@@ -11540,7 +11541,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>12</v>
       </c>
@@ -11596,7 +11597,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>17</v>
       </c>
@@ -11652,7 +11653,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>17</v>
       </c>
@@ -11708,7 +11709,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>18</v>
       </c>
@@ -11761,7 +11762,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>20</v>
       </c>
@@ -11820,7 +11821,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>20</v>
       </c>
@@ -11879,7 +11880,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>20</v>
       </c>
@@ -11938,7 +11939,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>20</v>
       </c>
@@ -11997,7 +11998,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>20</v>
       </c>
@@ -12056,7 +12057,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>20</v>
       </c>
@@ -12115,7 +12116,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>20</v>
       </c>
@@ -12174,7 +12175,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>20</v>
       </c>
@@ -12233,7 +12234,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>20</v>
       </c>
@@ -12289,7 +12290,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>23</v>
       </c>
@@ -12342,7 +12343,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>24</v>
       </c>
@@ -12398,7 +12399,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>25</v>
       </c>
@@ -12454,7 +12455,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>25</v>
       </c>
@@ -12510,7 +12511,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>28</v>
       </c>
@@ -12563,7 +12564,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>28</v>
       </c>
@@ -12616,7 +12617,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>28</v>
       </c>
@@ -12669,7 +12670,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>28</v>
       </c>
@@ -12722,7 +12723,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>28</v>
       </c>
@@ -12775,7 +12776,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>28</v>
       </c>
@@ -12828,7 +12829,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>28</v>
       </c>
@@ -12881,7 +12882,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>28</v>
       </c>
@@ -12934,7 +12935,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>28</v>
       </c>
@@ -12987,7 +12988,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>28</v>
       </c>
@@ -13040,7 +13041,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>28</v>
       </c>
@@ -13093,7 +13094,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>28</v>
       </c>
@@ -13146,7 +13147,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>28</v>
       </c>
@@ -13199,7 +13200,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>31</v>
       </c>
@@ -13255,7 +13256,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>32</v>
       </c>
@@ -13311,7 +13312,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>32</v>
       </c>
@@ -13367,7 +13368,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>32</v>
       </c>
@@ -13423,7 +13424,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>33</v>
       </c>
@@ -13479,7 +13480,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>35</v>
       </c>
@@ -13532,7 +13533,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>36</v>
       </c>
@@ -13585,7 +13586,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>36</v>
       </c>
@@ -13638,7 +13639,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>36</v>
       </c>
@@ -13691,7 +13692,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>36</v>
       </c>
@@ -13744,7 +13745,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>37</v>
       </c>
@@ -13800,7 +13801,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>38</v>
       </c>
@@ -13859,7 +13860,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>38</v>
       </c>
@@ -13918,7 +13919,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>38</v>
       </c>
@@ -13977,7 +13978,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>38</v>
       </c>
@@ -14033,7 +14034,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>41</v>
       </c>
@@ -14086,7 +14087,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>44</v>
       </c>
@@ -14142,7 +14143,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>46</v>
       </c>
@@ -14195,7 +14196,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <v>47</v>
       </c>
@@ -14307,7 +14308,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>1</v>
       </c>
@@ -14363,7 +14364,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>3</v>
       </c>
@@ -14419,7 +14420,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <v>3</v>
       </c>
@@ -14475,7 +14476,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <v>3</v>
       </c>
@@ -14531,7 +14532,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>3</v>
       </c>
@@ -14587,7 +14588,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
         <v>6</v>
       </c>
@@ -14643,7 +14644,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <v>6</v>
       </c>
@@ -14699,7 +14700,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
         <v>6</v>
       </c>
@@ -14755,7 +14756,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <v>11</v>
       </c>
@@ -14808,7 +14809,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>11</v>
       </c>
@@ -14864,7 +14865,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>11</v>
       </c>
@@ -14920,7 +14921,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>11</v>
       </c>
@@ -14973,7 +14974,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>13</v>
       </c>
@@ -15032,7 +15033,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>13</v>
       </c>
@@ -15091,7 +15092,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>13</v>
       </c>
@@ -15150,7 +15151,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>13</v>
       </c>
@@ -15209,7 +15210,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>13</v>
       </c>
@@ -15268,7 +15269,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>13</v>
       </c>
@@ -15327,7 +15328,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
         <v>13</v>
       </c>
@@ -15386,7 +15387,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <v>13</v>
       </c>
@@ -15445,7 +15446,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <v>13</v>
       </c>
@@ -15504,7 +15505,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>13</v>
       </c>
@@ -15563,7 +15564,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>13</v>
       </c>
@@ -15622,7 +15623,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>13</v>
       </c>
@@ -15681,7 +15682,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>13</v>
       </c>
@@ -15737,7 +15738,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>14</v>
       </c>
@@ -15793,7 +15794,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>14</v>
       </c>
@@ -15849,7 +15850,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>14</v>
       </c>
@@ -15905,7 +15906,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>14</v>
       </c>
@@ -15961,7 +15962,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>14</v>
       </c>
@@ -16017,7 +16018,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>14</v>
       </c>
@@ -16073,7 +16074,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>14</v>
       </c>
@@ -16129,7 +16130,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <v>14</v>
       </c>
@@ -16185,7 +16186,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>14</v>
       </c>
@@ -16241,7 +16242,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>14</v>
       </c>
@@ -16297,7 +16298,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>14</v>
       </c>
@@ -16353,7 +16354,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>14</v>
       </c>
@@ -16409,7 +16410,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>14</v>
       </c>
@@ -16465,7 +16466,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>14</v>
       </c>
@@ -16521,7 +16522,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>14</v>
       </c>
@@ -16577,7 +16578,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>14</v>
       </c>
@@ -16633,7 +16634,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>14</v>
       </c>
@@ -16689,7 +16690,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>14</v>
       </c>
@@ -16745,7 +16746,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>14</v>
       </c>
@@ -16801,7 +16802,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
         <v>14</v>
       </c>
@@ -16857,7 +16858,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
         <v>14</v>
       </c>
@@ -16913,7 +16914,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
         <v>14</v>
       </c>
@@ -16969,7 +16970,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>14</v>
       </c>
@@ -17025,7 +17026,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
         <v>14</v>
       </c>
@@ -17081,7 +17082,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
         <v>14</v>
       </c>
@@ -17137,7 +17138,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
         <v>14</v>
       </c>
@@ -17193,7 +17194,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
         <v>14</v>
       </c>
@@ -17249,7 +17250,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
         <v>14</v>
       </c>
@@ -17305,7 +17306,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <v>14</v>
       </c>
@@ -17361,7 +17362,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
         <v>14</v>
       </c>
@@ -17417,7 +17418,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
         <v>14</v>
       </c>
@@ -17473,7 +17474,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
         <v>14</v>
       </c>
@@ -17529,7 +17530,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
         <v>14</v>
       </c>
@@ -17585,7 +17586,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
         <v>14</v>
       </c>
@@ -17641,7 +17642,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
         <v>14</v>
       </c>
@@ -17697,7 +17698,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
         <v>14</v>
       </c>
@@ -17753,7 +17754,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
         <v>14</v>
       </c>
@@ -17809,7 +17810,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
         <v>14</v>
       </c>
@@ -17865,7 +17866,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
         <v>14</v>
       </c>
@@ -17921,7 +17922,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
         <v>14</v>
       </c>
@@ -17977,7 +17978,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
         <v>14</v>
       </c>
@@ -18033,7 +18034,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
         <v>14</v>
       </c>
@@ -18089,7 +18090,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
         <v>14</v>
       </c>
@@ -18145,7 +18146,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
         <v>14</v>
       </c>
@@ -18201,7 +18202,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
         <v>14</v>
       </c>
@@ -18257,7 +18258,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
         <v>14</v>
       </c>
@@ -18313,7 +18314,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
         <v>14</v>
       </c>
@@ -18369,7 +18370,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
         <v>14</v>
       </c>
@@ -18425,7 +18426,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
         <v>14</v>
       </c>
@@ -18481,7 +18482,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
         <v>14</v>
       </c>
@@ -18537,7 +18538,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
         <v>14</v>
       </c>
@@ -18593,7 +18594,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
         <v>14</v>
       </c>
@@ -18649,7 +18650,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
         <v>14</v>
       </c>
@@ -18708,7 +18709,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
         <v>14</v>
       </c>
@@ -18767,7 +18768,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
         <v>15</v>
       </c>
@@ -18820,7 +18821,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="4">
         <v>16</v>
       </c>
@@ -18873,7 +18874,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
         <v>16</v>
       </c>
@@ -18926,7 +18927,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="4">
         <v>16</v>
       </c>
@@ -18979,7 +18980,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
         <v>17</v>
       </c>
@@ -19035,7 +19036,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="4">
         <v>17</v>
       </c>
@@ -19091,7 +19092,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="4">
         <v>24</v>
       </c>
@@ -19144,7 +19145,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="4">
         <v>24</v>
       </c>
@@ -19197,7 +19198,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="4">
         <v>24</v>
       </c>
@@ -19250,7 +19251,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="4">
         <v>24</v>
       </c>
@@ -19303,7 +19304,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
         <v>24</v>
       </c>
@@ -19356,7 +19357,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="4">
         <v>24</v>
       </c>
@@ -19409,7 +19410,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="4">
         <v>24</v>
       </c>
@@ -19462,7 +19463,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="4">
         <v>25</v>
       </c>
@@ -19518,7 +19519,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="4">
         <v>27</v>
       </c>
@@ -19574,7 +19575,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="4">
         <v>28</v>
       </c>
@@ -19630,7 +19631,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="4">
         <v>28</v>
       </c>
@@ -19686,7 +19687,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="4">
         <v>28</v>
       </c>
@@ -19742,7 +19743,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="4">
         <v>29</v>
       </c>
@@ -19795,7 +19796,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="4">
         <v>29</v>
       </c>
@@ -19848,7 +19849,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="4">
         <v>29</v>
       </c>
@@ -19901,7 +19902,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="4">
         <v>30</v>
       </c>
@@ -19954,7 +19955,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="4">
         <v>30</v>
       </c>
@@ -20007,7 +20008,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="4">
         <v>31</v>
       </c>
@@ -20060,7 +20061,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="4">
         <v>35</v>
       </c>
@@ -20116,7 +20117,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="4">
         <v>35</v>
       </c>
@@ -20172,7 +20173,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="4">
         <v>35</v>
       </c>
@@ -20228,7 +20229,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="4">
         <v>35</v>
       </c>
@@ -20287,7 +20288,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="4">
         <v>35</v>
       </c>
@@ -20346,7 +20347,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="4">
         <v>35</v>
       </c>
@@ -20402,7 +20403,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="4">
         <v>37</v>
       </c>
@@ -20455,7 +20456,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="4">
         <v>37</v>
       </c>
@@ -20508,7 +20509,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="4">
         <v>41</v>
       </c>
@@ -20564,7 +20565,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="4">
         <v>42</v>
       </c>
@@ -20617,7 +20618,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="4">
         <v>42</v>
       </c>
@@ -20670,7 +20671,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="4">
         <v>42</v>
       </c>
@@ -20723,7 +20724,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="4">
         <v>42</v>
       </c>
@@ -20776,7 +20777,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="4">
         <v>42</v>
       </c>
@@ -20829,7 +20830,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="4">
         <v>45</v>
       </c>
@@ -20885,7 +20886,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="4">
         <v>46</v>
       </c>
@@ -20938,7 +20939,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="4">
         <v>51</v>
       </c>
@@ -20991,7 +20992,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="4">
         <v>51</v>
       </c>
@@ -21044,7 +21045,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="4">
         <v>51</v>
       </c>
@@ -21097,7 +21098,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="4">
         <v>53</v>
       </c>
@@ -21150,7 +21151,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="4">
         <v>53</v>
       </c>
@@ -21203,7 +21204,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="4">
         <v>53</v>
       </c>
@@ -21256,7 +21257,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="4">
         <v>53</v>
       </c>
@@ -21309,7 +21310,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="4">
         <v>53</v>
       </c>
@@ -21362,7 +21363,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="4">
         <v>53</v>
       </c>
@@ -21415,7 +21416,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="4">
         <v>53</v>
       </c>
@@ -21468,7 +21469,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="4">
         <v>53</v>
       </c>
@@ -21524,7 +21525,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="4">
         <v>53</v>
       </c>
@@ -21580,7 +21581,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="4">
         <v>53</v>
       </c>
@@ -21633,7 +21634,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="4">
         <v>54</v>
       </c>
@@ -21689,7 +21690,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="4">
         <v>54</v>
       </c>
@@ -21748,7 +21749,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="4">
         <v>54</v>
       </c>
@@ -21807,7 +21808,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="4">
         <v>57</v>
       </c>
@@ -21863,7 +21864,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="4">
         <v>57</v>
       </c>
@@ -21919,7 +21920,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="4">
         <v>57</v>
       </c>
@@ -21975,7 +21976,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="4">
         <v>57</v>
       </c>
@@ -22031,7 +22032,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="4">
         <v>57</v>
       </c>
@@ -22087,7 +22088,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="4">
         <v>57</v>
       </c>
@@ -22143,7 +22144,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="4">
         <v>57</v>
       </c>
@@ -22199,7 +22200,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="4">
         <v>57</v>
       </c>
@@ -22255,7 +22256,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="4">
         <v>57</v>
       </c>
@@ -22311,7 +22312,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="4">
         <v>57</v>
       </c>
@@ -22367,7 +22368,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="4">
         <v>57</v>
       </c>
@@ -22423,7 +22424,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="4">
         <v>57</v>
       </c>
@@ -22479,7 +22480,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="4">
         <v>57</v>
       </c>
@@ -22535,7 +22536,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="4">
         <v>57</v>
       </c>
@@ -22591,7 +22592,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="4">
         <v>57</v>
       </c>
@@ -22647,7 +22648,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="4">
         <v>57</v>
       </c>
@@ -22703,7 +22704,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="4">
         <v>57</v>
       </c>
@@ -22759,7 +22760,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="4">
         <v>57</v>
       </c>
@@ -22815,7 +22816,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="4">
         <v>57</v>
       </c>
@@ -22871,7 +22872,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="4">
         <v>57</v>
       </c>
@@ -22927,7 +22928,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="4">
         <v>57</v>
       </c>
@@ -22983,7 +22984,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="4">
         <v>57</v>
       </c>
@@ -23039,7 +23040,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="4">
         <v>57</v>
       </c>
@@ -23095,7 +23096,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="4">
         <v>57</v>
       </c>
@@ -23151,7 +23152,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="4">
         <v>57</v>
       </c>
@@ -23207,7 +23208,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="4">
         <v>57</v>
       </c>
@@ -23263,7 +23264,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="4">
         <v>57</v>
       </c>
@@ -23319,7 +23320,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="4">
         <v>57</v>
       </c>
@@ -23375,7 +23376,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="4">
         <v>58</v>
       </c>
@@ -23434,7 +23435,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="4">
         <v>58</v>
       </c>
@@ -23493,7 +23494,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="4">
         <v>58</v>
       </c>
@@ -23549,7 +23550,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="4">
         <v>59</v>
       </c>
@@ -23605,7 +23606,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="4">
         <v>59</v>
       </c>
@@ -23661,7 +23662,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="4">
         <v>59</v>
       </c>
@@ -23717,7 +23718,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="4">
         <v>59</v>
       </c>
@@ -23773,7 +23774,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="4">
         <v>59</v>
       </c>
@@ -23826,7 +23827,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="4">
         <v>63</v>
       </c>
@@ -23882,7 +23883,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="4">
         <v>63</v>
       </c>
@@ -23938,7 +23939,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="4">
         <v>63</v>
       </c>
@@ -23994,7 +23995,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="4">
         <v>67</v>
       </c>
@@ -24050,7 +24051,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="4">
         <v>67</v>
       </c>
@@ -24106,7 +24107,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="4">
         <v>69</v>
       </c>
@@ -24162,7 +24163,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="4">
         <v>69</v>
       </c>
@@ -24218,7 +24219,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="4">
         <v>69</v>
       </c>
@@ -24274,7 +24275,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="4">
         <v>69</v>
       </c>
@@ -24330,7 +24331,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="4">
         <v>71</v>
       </c>
@@ -24386,7 +24387,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="4">
         <v>71</v>
       </c>
@@ -24442,7 +24443,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="4">
         <v>71</v>
       </c>
@@ -24498,7 +24499,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="4">
         <v>74</v>
       </c>
@@ -24554,7 +24555,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="4">
         <v>75</v>
       </c>
@@ -24610,7 +24611,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="4">
         <v>75</v>
       </c>
@@ -24666,7 +24667,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="4">
         <v>75</v>
       </c>
@@ -24722,7 +24723,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="4">
         <v>75</v>
       </c>
@@ -24778,7 +24779,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="4">
         <v>77</v>
       </c>
@@ -24831,7 +24832,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="4">
         <v>78</v>
       </c>
@@ -24887,7 +24888,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="4">
         <v>78</v>
       </c>
@@ -24943,7 +24944,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="4">
         <v>78</v>
       </c>
@@ -24999,7 +25000,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="4">
         <v>78</v>
       </c>
@@ -25055,7 +25056,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="4">
         <v>79</v>
       </c>
@@ -25111,7 +25112,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="4">
         <v>79</v>
       </c>
@@ -25167,7 +25168,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="4">
         <v>79</v>
       </c>
@@ -25223,7 +25224,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="4">
         <v>79</v>
       </c>
@@ -25279,7 +25280,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="4">
         <v>79</v>
       </c>
@@ -25335,7 +25336,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="4">
         <v>79</v>
       </c>
@@ -25391,7 +25392,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="4">
         <v>79</v>
       </c>
@@ -25447,7 +25448,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="4">
         <v>79</v>
       </c>
@@ -25503,7 +25504,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="4">
         <v>79</v>
       </c>
@@ -25559,7 +25560,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="4">
         <v>79</v>
       </c>
@@ -25615,7 +25616,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="4">
         <v>79</v>
       </c>
@@ -25671,7 +25672,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="4">
         <v>79</v>
       </c>
@@ -25727,7 +25728,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="4">
         <v>79</v>
       </c>
@@ -25783,7 +25784,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="4">
         <v>80</v>
       </c>
@@ -25839,7 +25840,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="4">
         <v>81</v>
       </c>
@@ -25895,7 +25896,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="417" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="4">
         <v>81</v>
       </c>
@@ -25951,7 +25952,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="418" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="4">
         <v>81</v>
       </c>
@@ -26007,7 +26008,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="419" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="4">
         <v>81</v>
       </c>
@@ -26063,7 +26064,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="420" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="4">
         <v>81</v>
       </c>
@@ -26119,7 +26120,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="421" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="4">
         <v>86</v>
       </c>
@@ -26175,7 +26176,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="4">
         <v>87</v>
       </c>
@@ -26231,7 +26232,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="423" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="4">
         <v>87</v>
       </c>
@@ -26287,7 +26288,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="424" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="4">
         <v>89</v>
       </c>
@@ -26340,7 +26341,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="425" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="4">
         <v>90</v>
       </c>
@@ -26396,7 +26397,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="426" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="4">
         <v>90</v>
       </c>
@@ -26455,7 +26456,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="427" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="4">
         <v>90</v>
       </c>
@@ -26514,7 +26515,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="4">
         <v>90</v>
       </c>
@@ -26573,7 +26574,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="4">
         <v>90</v>
       </c>
@@ -26629,7 +26630,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="430" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="4">
         <v>90</v>
       </c>
@@ -26685,7 +26686,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="431" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="4">
         <v>93</v>
       </c>
@@ -26741,7 +26742,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="432" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="4">
         <v>96</v>
       </c>
@@ -26794,7 +26795,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="433" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="4">
         <v>96</v>
       </c>
@@ -26847,7 +26848,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="434" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="4">
         <v>97</v>
       </c>
@@ -26906,7 +26907,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="435" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="4">
         <v>98</v>
       </c>
@@ -26966,7 +26967,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T1"/>
+  <autoFilter ref="A1:T435">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="7020"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -26976,7 +26983,8 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T525" sqref="A1:T525"/>
+      <pane ySplit="1" topLeftCell="A512" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B311" sqref="B311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Paolo/Scripts/Bases/dfunido2.xlsx
+++ b/Paolo/Scripts/Bases/dfunido2.xlsx
@@ -2221,7 +2221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2246,6 +2246,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2466,7 +2467,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B291" sqref="B291"/>
+      <selection pane="bottomLeft" activeCell="B440" sqref="B440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14262,7 +14263,7 @@
       <c r="C208" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D208" s="4" t="s">
+      <c r="D208" s="18" t="s">
         <v>269</v>
       </c>
       <c r="E208" s="4" t="s">

--- a/Paolo/Scripts/Bases/dfunido2.xlsx
+++ b/Paolo/Scripts/Bases/dfunido2.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4110" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4110" uniqueCount="674">
   <si>
     <t>ID</t>
   </si>
@@ -2097,6 +2097,38 @@
   </si>
   <si>
     <t>numero de expediente no se encuentra en la base RUIAS</t>
+  </si>
+  <si>
+    <t>El administrado no adoptó acciones inmediatas para controlar y minimizar los impactos ambientales ocasionados por la fuga de gas ocurrida el 9 de abril del año 2018 en la línea de 3 ½” de diámetro de la plataforma PN5-UU del yacimiento Peña Negra en el Lote Z-2B, de acuerdo a su Plan de Contingencia, generando daño potencial a la flora y fauna.</t>
+  </si>
+  <si>
+    <t>El administrado no remitió la siguiente información requerida a través de la Carta N° 0010-2021-OEFA-ODES-ICA: SSAG: Subdirección de Sanción y Gestión de Incentivos Decenio de la Igualdad de Oportunidades para Mujeres y Hombres “Año del Bicentenario, de la consolidación de nuestra Independencia, y de la conmemoración de las heroicas batallas de Junín y Ayacucho” Página 2 de 17. El registro de incidentes de fugas y derrames de hidrocarburo y de cualquier sustancia química peligrosa manipulada como parte de su actividad de los meses de febrero a noviembre de 2020.  El Informe Ambiental Anual correspondiente al periodo 2019.  Los manifiestos de manejo de residuos peligrosos del primer, segundo y tercer trimestre del 2020.  El monitoreo de calidad de aire y ruido ambiental de los trimestres 2020-II, 2020-III y 2020-IV</t>
+  </si>
+  <si>
+    <t>El administrado incumplió lo establecido en su instrumento de gestión ambiental (ITS); toda vez que, no realizó el monitoreo de Calidad de Aire, durante el segundo semestre del 2020</t>
+  </si>
+  <si>
+    <t>El administrado incumplió lo establecido en su instrumento de gestión ambiental (ITS); toda vez que, no realizó el monitoreo de ruido ambiental del segundo semestre del 2020.</t>
+  </si>
+  <si>
+    <t>El administrado incumplió lo establecido en su instrumento de gestión ambiental (ITS); toda vez que, no realizó el monitoreo de efluentes líquidos del segundo semestre del 2020.</t>
+  </si>
+  <si>
+    <t>El administrado no reportó la Declaración Anual de Manejo de Residuos Sólidos correspondiente al periodo 2020 en el aplicativo SIGERSOL.</t>
+  </si>
+  <si>
+    <t>El administrado, no realizó un adecuado almacenamiento de hidrocarburos, toda vez que no contaba con área estanca, el área estanca no se encontraba debidamente impermeabilizada o se encontraba deteriorada, según el siguiente detalle: Tanques de almacenamiento sin área estanca - En el primer nivel de la Plataforma DD (Coordenadas UTM Sistema WGS 84 469154 E 9523644 N). - En el tercer nivel de la Plataforma LL (Coordenadas UTM Sistema WGS 84 466183 E 9525399 N). - En la Plataforma LT1 (Coordenadas UTM Sistema WGS 84 464124 E 9779169 N). - En la Plataforma PG (Coordenadas UTM Sistema WGS 84 465790 E 9490445 N). - En la Plataforma LO-10 (Coordenadas UTM Sistema WGS 84 461224 E 9506434 N). - En la Plataforma LO-10 (Coordenadas UTM Sistema WGS 84 461224 E 9506434 N). Tanque de almacenamiento en área estanca sin impermeabilizar - En el segundo nivel de la Plataforma FF (Coordenadas UTM Sistema WGS 84 470146 E 9526898 N). Tanques de almacenamiento con áreas estancas deterioradas
+- En la Batería Providencia, el área estanca de los Tanques de Almacenamiento de Crudo N° 4003 y 4002 (Coordenadas UTM Sistema WGS  84 467663 E 9489811 N).
+- En la PTS, los Tanques de Almacenamiento de Crudo N° 1, 2, 3, 4, 5.
+- En la Batería Capullana del área de Lobitos (Coordenadas UTM Sistema WGS 84 466595 E 9503584 N).
+- En la Batería Yapato del área de Lobitos (Coordenadas UTM Sistema WGS 84 466348 E 9504824 N).
+- La zona estanca de la Batería Restin (Coordenadas UTM Sistema WGS 84 471307 E 9524029 N).
+- En la zona estanca de la Batería 1 (Coordenadas UTM Sistema WGS 84 471834 E 9526023 N).
+- En la Batería Rincón, la zona estanca del tanque de almacenamiento de petróleo crudo (Coordenadas UTM Sistema WGS 84 473457 E 9530067N)</t>
+  </si>
+  <si>
+    <t>El administrado no realizó un adecuado almacenamiento de productos químicos conforme a lo establecido en su EIA del Proyecto de Perforación, toda vez que: (i) las sustancias químicas en off-shore fueron almacenadas en área que no contaban con drenajes y/o bandejas: y, (ii) las sustancias químicas en on-shore fueron almacenadas en área sin impermeabilizar y que no contaban con sistema de doble contención, conforme el siguiente detalle de las áreas: Sustancias químicas en off-shore - En la plataforma LO-14 (Coordenadas UTM Sistema WGS 84 462835 E 9506360 N). - En la plataforma LO-3 (Coordenadas UTM Sistema WGS 84 459890 E 9511582 N). - En la plataforma LO-10 (Coordenadas UTM Sistema WGS 84 461224 E 9506434 N). - En la plataforma LO-16 (Coordenadas UTM Sistema WGS 84 459933 E 9505976 N). - En la Batería Capullana del área Lobitos (Coordenadas UTM Sistema WGS 84 466588 E 9503593 N). - En la plataforma JJ (463119 E 9491990 N). - En la plataforma JJ (coordenadas UTM 463119 E 9491990 N). - En la plataforma SPI-A (coordenadas UTM 491775 E 9382366 N). - En la plataforma SPI-A (coordenadas UTM 491775 E 9382366 N). - En la plataforma SPI-A (coordenadas UTM 491775 E 9382366 N). - En la plataforma SPI (coordenadas UTM 490053 E 9382816 N). - En la plataforma RC1 (coordenadas UTM 484546 E 9452441 N) Sustancias químicas en on-shore - En el área de inyección química de la Batería Restin (Coordenadas UTM Sistema WGS 84 471270 E 9524030 N). - El área de inyección química de la Batería 1 cuenta con tres (03) recipientes de productos químicos de 130 litros cada uno y dos (02) recipientes de productos químicos de 100 litros cada uno (Coordenadas UTM Sistema WGS 84 471801 E 9525992 N), además de 03 cilindros de 55 gal de capacidad cada uno para derrames. - El tanque auxiliar que contiene producto Mycella (lubricador) de la Batería 1 (Coordenadas UTM Sistema WGS 84 4718401 E 9525990 N). - El almacén de productos químicos ubicado de la Estación de Compresores (Coordenadas UTM Sistema WGS 84 471809 E 9525652 N). - El tanque auxiliar que contiene producto Mycella (lubricador) ubicado en la Estación de Compresores (Coordenadas UTM Sistema WGS 84 471822 E 9525735 N). - El tanque auxiliar que contiene producto Mycella (lubricador) ubicado en la Estación de Compresores (Coordenadas UTM Sistema WGS 84 471866 E 9525620 N). - El área de inyección química ubicado en la Estación de Compresores (Coordenadas UTM Sistema WGS 84 471858 E 9525678 N). - El área de inyección química de dos (02) cilindros de 55 gal de capacidad cada uno ubicado en la Batería 3 (Coordenadas UTM Sistema WGS 84 471978 E 9527302 N. - El área de inyección química de tres (03) cilindros de 55 gal de capacidad cada uno ubicado en la Batería 3 (Coordenadas UTM Sistema WGS 84 471949 E 9527306 N).
+- En la plataforma SPI-A (coordenadas UTM 467559 E 9483108 N).</t>
   </si>
 </sst>
 </file>
@@ -2462,12 +2494,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T435"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B440" sqref="B440"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2555,7 +2586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -2611,7 +2642,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2673,7 +2704,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2735,7 +2766,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -2797,7 +2828,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -2859,7 +2890,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -2915,7 +2946,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
@@ -2971,7 +3002,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -3027,7 +3058,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>3</v>
       </c>
@@ -3083,7 +3114,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>4</v>
       </c>
@@ -3139,7 +3170,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -3198,7 +3229,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -3257,7 +3288,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>4</v>
       </c>
@@ -3316,7 +3347,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>4</v>
       </c>
@@ -3372,7 +3403,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>4</v>
       </c>
@@ -3428,7 +3459,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>4</v>
       </c>
@@ -3484,7 +3515,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>4</v>
       </c>
@@ -3540,7 +3571,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>4</v>
       </c>
@@ -3599,7 +3630,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -3658,7 +3689,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>4</v>
       </c>
@@ -3717,7 +3748,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>4</v>
       </c>
@@ -3776,7 +3807,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -3832,7 +3863,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>4</v>
       </c>
@@ -3888,7 +3919,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>4</v>
       </c>
@@ -3944,7 +3975,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>4</v>
       </c>
@@ -4003,7 +4034,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>4</v>
       </c>
@@ -4062,7 +4093,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>4</v>
       </c>
@@ -4121,7 +4152,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>4</v>
       </c>
@@ -4180,7 +4211,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>6</v>
       </c>
@@ -4236,7 +4267,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>11</v>
       </c>
@@ -4292,7 +4323,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>13</v>
       </c>
@@ -4348,7 +4379,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>18</v>
       </c>
@@ -4407,7 +4438,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -4466,7 +4497,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>18</v>
       </c>
@@ -4525,7 +4556,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>18</v>
       </c>
@@ -4584,7 +4615,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>20</v>
       </c>
@@ -4640,7 +4671,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>20</v>
       </c>
@@ -4696,7 +4727,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>20</v>
       </c>
@@ -4752,7 +4783,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>22</v>
       </c>
@@ -4808,7 +4839,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>24</v>
       </c>
@@ -4867,7 +4898,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>24</v>
       </c>
@@ -4926,7 +4957,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>24</v>
       </c>
@@ -4985,7 +5016,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>24</v>
       </c>
@@ -5044,7 +5075,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>25</v>
       </c>
@@ -5100,7 +5131,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>25</v>
       </c>
@@ -5156,7 +5187,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>25</v>
       </c>
@@ -5212,7 +5243,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>25</v>
       </c>
@@ -5268,7 +5299,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>25</v>
       </c>
@@ -5324,7 +5355,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>25</v>
       </c>
@@ -5380,7 +5411,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>25</v>
       </c>
@@ -5436,7 +5467,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>25</v>
       </c>
@@ -5492,7 +5523,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>25</v>
       </c>
@@ -5548,7 +5579,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>25</v>
       </c>
@@ -5604,7 +5635,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>26</v>
       </c>
@@ -5660,7 +5691,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>27</v>
       </c>
@@ -5716,7 +5747,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>30</v>
       </c>
@@ -5772,7 +5803,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>30</v>
       </c>
@@ -5828,7 +5859,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>30</v>
       </c>
@@ -5884,7 +5915,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>30</v>
       </c>
@@ -5940,7 +5971,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>31</v>
       </c>
@@ -5996,7 +6027,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>31</v>
       </c>
@@ -6052,7 +6083,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>31</v>
       </c>
@@ -6108,7 +6139,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>31</v>
       </c>
@@ -6164,7 +6195,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>31</v>
       </c>
@@ -6220,7 +6251,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>31</v>
       </c>
@@ -6276,7 +6307,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>31</v>
       </c>
@@ -6332,7 +6363,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>33</v>
       </c>
@@ -6388,7 +6419,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>34</v>
       </c>
@@ -6444,7 +6475,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>34</v>
       </c>
@@ -6500,7 +6531,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>36</v>
       </c>
@@ -6559,7 +6590,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>36</v>
       </c>
@@ -6618,7 +6649,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>36</v>
       </c>
@@ -6674,7 +6705,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>38</v>
       </c>
@@ -6730,7 +6761,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>38</v>
       </c>
@@ -6786,7 +6817,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>38</v>
       </c>
@@ -6842,7 +6873,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>40</v>
       </c>
@@ -6901,7 +6932,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>40</v>
       </c>
@@ -6960,7 +6991,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>40</v>
       </c>
@@ -7019,7 +7050,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>40</v>
       </c>
@@ -7078,7 +7109,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>40</v>
       </c>
@@ -7134,7 +7165,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>41</v>
       </c>
@@ -7190,7 +7221,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>41</v>
       </c>
@@ -7246,7 +7277,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>41</v>
       </c>
@@ -7302,7 +7333,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>41</v>
       </c>
@@ -7358,7 +7389,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>41</v>
       </c>
@@ -7414,7 +7445,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>41</v>
       </c>
@@ -7470,7 +7501,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>41</v>
       </c>
@@ -7526,7 +7557,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>41</v>
       </c>
@@ -7582,7 +7613,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>41</v>
       </c>
@@ -7638,7 +7669,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>41</v>
       </c>
@@ -7694,7 +7725,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>41</v>
       </c>
@@ -7750,7 +7781,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>41</v>
       </c>
@@ -7806,7 +7837,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>41</v>
       </c>
@@ -7862,7 +7893,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>41</v>
       </c>
@@ -7918,7 +7949,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>41</v>
       </c>
@@ -7974,7 +8005,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>41</v>
       </c>
@@ -8030,7 +8061,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>41</v>
       </c>
@@ -8086,7 +8117,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>41</v>
       </c>
@@ -8142,7 +8173,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>41</v>
       </c>
@@ -8198,7 +8229,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>41</v>
       </c>
@@ -8254,7 +8285,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>41</v>
       </c>
@@ -8310,7 +8341,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>41</v>
       </c>
@@ -8366,7 +8397,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>41</v>
       </c>
@@ -8422,7 +8453,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>41</v>
       </c>
@@ -8478,7 +8509,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>41</v>
       </c>
@@ -8534,7 +8565,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>41</v>
       </c>
@@ -8590,7 +8621,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="108" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>41</v>
       </c>
@@ -8649,7 +8680,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>41</v>
       </c>
@@ -8708,7 +8739,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>41</v>
       </c>
@@ -8767,7 +8798,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>41</v>
       </c>
@@ -8826,7 +8857,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>41</v>
       </c>
@@ -8885,7 +8916,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>41</v>
       </c>
@@ -8944,7 +8975,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>41</v>
       </c>
@@ -9003,7 +9034,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>41</v>
       </c>
@@ -9062,7 +9093,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>41</v>
       </c>
@@ -9121,7 +9152,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>41</v>
       </c>
@@ -9180,7 +9211,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>41</v>
       </c>
@@ -9239,7 +9270,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>41</v>
       </c>
@@ -9298,7 +9329,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>41</v>
       </c>
@@ -9357,7 +9388,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>41</v>
       </c>
@@ -9416,7 +9447,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>41</v>
       </c>
@@ -9475,7 +9506,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>41</v>
       </c>
@@ -9534,7 +9565,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>41</v>
       </c>
@@ -9593,7 +9624,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>41</v>
       </c>
@@ -9649,7 +9680,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>41</v>
       </c>
@@ -9705,7 +9736,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>41</v>
       </c>
@@ -9764,7 +9795,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>41</v>
       </c>
@@ -9823,7 +9854,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>41</v>
       </c>
@@ -9882,7 +9913,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>41</v>
       </c>
@@ -9941,7 +9972,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>41</v>
       </c>
@@ -10000,7 +10031,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>41</v>
       </c>
@@ -10059,7 +10090,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>48</v>
       </c>
@@ -10115,7 +10146,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>1</v>
       </c>
@@ -10171,7 +10202,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>2</v>
       </c>
@@ -10227,7 +10258,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>2</v>
       </c>
@@ -10283,7 +10314,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>2</v>
       </c>
@@ -10339,7 +10370,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>4</v>
       </c>
@@ -10395,7 +10426,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>4</v>
       </c>
@@ -10451,7 +10482,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>4</v>
       </c>
@@ -10510,7 +10541,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>4</v>
       </c>
@@ -10569,7 +10600,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>4</v>
       </c>
@@ -10628,7 +10659,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>4</v>
       </c>
@@ -10687,7 +10718,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>4</v>
       </c>
@@ -10746,7 +10777,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>4</v>
       </c>
@@ -10805,7 +10836,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>4</v>
       </c>
@@ -10864,7 +10895,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>4</v>
       </c>
@@ -10923,7 +10954,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>4</v>
       </c>
@@ -10982,7 +11013,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" s="10">
         <v>7</v>
       </c>
@@ -11038,7 +11069,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" s="10">
         <v>7</v>
       </c>
@@ -11051,8 +11082,8 @@
       <c r="D150" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E150" s="8" t="s">
-        <v>176</v>
+      <c r="E150" t="s">
+        <v>673</v>
       </c>
       <c r="F150" s="4">
         <v>2</v>
@@ -11094,7 +11125,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" s="10">
         <v>7</v>
       </c>
@@ -11107,8 +11138,8 @@
       <c r="D151" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E151" s="8" t="s">
-        <v>177</v>
+      <c r="E151" t="s">
+        <v>672</v>
       </c>
       <c r="F151" s="4">
         <v>3</v>
@@ -11150,7 +11181,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" s="10">
         <v>7</v>
       </c>
@@ -11206,7 +11237,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" s="10">
         <v>7</v>
       </c>
@@ -11262,7 +11293,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>11</v>
       </c>
@@ -11318,7 +11349,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>12</v>
       </c>
@@ -11374,7 +11405,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>12</v>
       </c>
@@ -11430,7 +11461,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>12</v>
       </c>
@@ -11486,7 +11517,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>12</v>
       </c>
@@ -11542,7 +11573,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>12</v>
       </c>
@@ -11598,7 +11629,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>17</v>
       </c>
@@ -11654,7 +11685,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>17</v>
       </c>
@@ -11667,7 +11698,7 @@
       <c r="D161" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="E161" s="4" t="s">
+      <c r="E161" s="18" t="s">
         <v>193</v>
       </c>
       <c r="F161" s="4">
@@ -11710,7 +11741,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>18</v>
       </c>
@@ -11763,7 +11794,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>20</v>
       </c>
@@ -11776,7 +11807,7 @@
       <c r="D163" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E163" s="4" t="s">
+      <c r="E163" s="18" t="s">
         <v>199</v>
       </c>
       <c r="F163" s="4">
@@ -11822,7 +11853,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>20</v>
       </c>
@@ -11881,7 +11912,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>20</v>
       </c>
@@ -11940,7 +11971,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>20</v>
       </c>
@@ -11999,7 +12030,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>20</v>
       </c>
@@ -12058,7 +12089,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>20</v>
       </c>
@@ -12117,7 +12148,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>20</v>
       </c>
@@ -12176,7 +12207,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>20</v>
       </c>
@@ -12235,7 +12266,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>20</v>
       </c>
@@ -12291,7 +12322,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>23</v>
       </c>
@@ -12344,7 +12375,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>24</v>
       </c>
@@ -12400,7 +12431,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>25</v>
       </c>
@@ -12456,7 +12487,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>25</v>
       </c>
@@ -12512,7 +12543,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>28</v>
       </c>
@@ -12565,7 +12596,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="177" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>28</v>
       </c>
@@ -12618,7 +12649,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="178" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>28</v>
       </c>
@@ -12671,7 +12702,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="179" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>28</v>
       </c>
@@ -12724,7 +12755,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="180" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>28</v>
       </c>
@@ -12777,7 +12808,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="181" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>28</v>
       </c>
@@ -12830,7 +12861,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="182" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>28</v>
       </c>
@@ -12883,7 +12914,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="183" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>28</v>
       </c>
@@ -12936,7 +12967,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="184" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>28</v>
       </c>
@@ -12989,7 +13020,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="185" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>28</v>
       </c>
@@ -13042,7 +13073,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="186" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>28</v>
       </c>
@@ -13095,7 +13126,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="187" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>28</v>
       </c>
@@ -13148,7 +13179,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="188" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>28</v>
       </c>
@@ -13201,7 +13232,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="189" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>31</v>
       </c>
@@ -13257,7 +13288,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="190" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>32</v>
       </c>
@@ -13313,7 +13344,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="191" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>32</v>
       </c>
@@ -13369,7 +13400,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="192" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>32</v>
       </c>
@@ -13425,7 +13456,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="193" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>33</v>
       </c>
@@ -13481,7 +13512,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="194" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>35</v>
       </c>
@@ -13534,7 +13565,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="195" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>36</v>
       </c>
@@ -13587,7 +13618,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="196" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>36</v>
       </c>
@@ -13640,7 +13671,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="197" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>36</v>
       </c>
@@ -13693,7 +13724,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="198" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>36</v>
       </c>
@@ -13746,7 +13777,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="199" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>37</v>
       </c>
@@ -13802,7 +13833,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="200" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>38</v>
       </c>
@@ -13861,7 +13892,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="201" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>38</v>
       </c>
@@ -13920,7 +13951,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="202" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>38</v>
       </c>
@@ -13979,7 +14010,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="203" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>38</v>
       </c>
@@ -14035,7 +14066,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="204" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>41</v>
       </c>
@@ -14088,7 +14119,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="205" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>44</v>
       </c>
@@ -14144,7 +14175,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="206" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>46</v>
       </c>
@@ -14197,7 +14228,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="207" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <v>47</v>
       </c>
@@ -14309,7 +14340,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="209" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>1</v>
       </c>
@@ -14322,8 +14353,8 @@
       <c r="D209" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="E209" s="8" t="s">
-        <v>273</v>
+      <c r="E209" t="s">
+        <v>666</v>
       </c>
       <c r="F209" s="4">
         <v>4</v>
@@ -14365,7 +14396,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="210" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>3</v>
       </c>
@@ -14421,7 +14452,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="211" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <v>3</v>
       </c>
@@ -14477,7 +14508,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="212" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <v>3</v>
       </c>
@@ -14533,7 +14564,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="213" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>3</v>
       </c>
@@ -14589,7 +14620,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="214" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
         <v>6</v>
       </c>
@@ -14645,7 +14676,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="215" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <v>6</v>
       </c>
@@ -14701,7 +14732,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="216" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
         <v>6</v>
       </c>
@@ -14757,7 +14788,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="217" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <v>11</v>
       </c>
@@ -14810,7 +14841,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="218" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>11</v>
       </c>
@@ -14866,7 +14897,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="219" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>11</v>
       </c>
@@ -14922,7 +14953,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="220" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>11</v>
       </c>
@@ -14975,7 +15006,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="221" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>13</v>
       </c>
@@ -15034,7 +15065,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="222" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>13</v>
       </c>
@@ -15093,7 +15124,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="223" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>13</v>
       </c>
@@ -15152,7 +15183,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="224" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>13</v>
       </c>
@@ -15211,7 +15242,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="225" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>13</v>
       </c>
@@ -15270,7 +15301,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="226" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>13</v>
       </c>
@@ -15329,7 +15360,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="227" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
         <v>13</v>
       </c>
@@ -15388,7 +15419,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="228" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <v>13</v>
       </c>
@@ -15447,7 +15478,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="229" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <v>13</v>
       </c>
@@ -15506,7 +15537,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="230" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>13</v>
       </c>
@@ -15565,7 +15596,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="231" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>13</v>
       </c>
@@ -15624,7 +15655,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="232" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>13</v>
       </c>
@@ -15683,7 +15714,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="233" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>13</v>
       </c>
@@ -15739,7 +15770,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="234" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>14</v>
       </c>
@@ -15795,7 +15826,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="235" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>14</v>
       </c>
@@ -15851,7 +15882,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="236" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>14</v>
       </c>
@@ -15907,7 +15938,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="237" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>14</v>
       </c>
@@ -15963,7 +15994,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="238" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>14</v>
       </c>
@@ -16019,7 +16050,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="239" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>14</v>
       </c>
@@ -16075,7 +16106,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="240" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>14</v>
       </c>
@@ -16131,7 +16162,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <v>14</v>
       </c>
@@ -16187,7 +16218,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>14</v>
       </c>
@@ -16243,7 +16274,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>14</v>
       </c>
@@ -16299,7 +16330,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>14</v>
       </c>
@@ -16355,7 +16386,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>14</v>
       </c>
@@ -16411,7 +16442,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>14</v>
       </c>
@@ -16467,7 +16498,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>14</v>
       </c>
@@ -16523,7 +16554,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>14</v>
       </c>
@@ -16579,7 +16610,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>14</v>
       </c>
@@ -16635,7 +16666,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>14</v>
       </c>
@@ -16691,7 +16722,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>14</v>
       </c>
@@ -16747,7 +16778,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>14</v>
       </c>
@@ -16803,7 +16834,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
         <v>14</v>
       </c>
@@ -16859,7 +16890,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
         <v>14</v>
       </c>
@@ -16915,7 +16946,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
         <v>14</v>
       </c>
@@ -16971,7 +17002,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>14</v>
       </c>
@@ -17027,7 +17058,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
         <v>14</v>
       </c>
@@ -17083,7 +17114,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
         <v>14</v>
       </c>
@@ -17139,7 +17170,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
         <v>14</v>
       </c>
@@ -17195,7 +17226,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
         <v>14</v>
       </c>
@@ -17251,7 +17282,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
         <v>14</v>
       </c>
@@ -17307,7 +17338,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <v>14</v>
       </c>
@@ -17363,7 +17394,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
         <v>14</v>
       </c>
@@ -17419,7 +17450,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
         <v>14</v>
       </c>
@@ -17475,7 +17506,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
         <v>14</v>
       </c>
@@ -17531,7 +17562,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
         <v>14</v>
       </c>
@@ -17587,7 +17618,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
         <v>14</v>
       </c>
@@ -17643,7 +17674,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
         <v>14</v>
       </c>
@@ -17699,7 +17730,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
         <v>14</v>
       </c>
@@ -17755,7 +17786,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
         <v>14</v>
       </c>
@@ -17811,7 +17842,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
         <v>14</v>
       </c>
@@ -17867,7 +17898,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
         <v>14</v>
       </c>
@@ -17923,7 +17954,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
         <v>14</v>
       </c>
@@ -17979,7 +18010,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
         <v>14</v>
       </c>
@@ -18035,7 +18066,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
         <v>14</v>
       </c>
@@ -18091,7 +18122,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
         <v>14</v>
       </c>
@@ -18147,7 +18178,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
         <v>14</v>
       </c>
@@ -18203,7 +18234,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="278" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
         <v>14</v>
       </c>
@@ -18259,7 +18290,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
         <v>14</v>
       </c>
@@ -18315,7 +18346,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="280" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
         <v>14</v>
       </c>
@@ -18371,7 +18402,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
         <v>14</v>
       </c>
@@ -18427,7 +18458,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
         <v>14</v>
       </c>
@@ -18483,7 +18514,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
         <v>14</v>
       </c>
@@ -18539,7 +18570,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
         <v>14</v>
       </c>
@@ -18595,7 +18626,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="285" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
         <v>14</v>
       </c>
@@ -18651,7 +18682,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="286" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
         <v>14</v>
       </c>
@@ -18710,7 +18741,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
         <v>14</v>
       </c>
@@ -18769,7 +18800,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
         <v>15</v>
       </c>
@@ -18822,7 +18853,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="289" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A289" s="4">
         <v>16</v>
       </c>
@@ -18875,7 +18906,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="290" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
         <v>16</v>
       </c>
@@ -18928,7 +18959,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="291" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A291" s="4">
         <v>16</v>
       </c>
@@ -18981,7 +19012,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="292" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
         <v>17</v>
       </c>
@@ -19037,7 +19068,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="293" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A293" s="4">
         <v>17</v>
       </c>
@@ -19050,8 +19081,8 @@
       <c r="D293" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="E293" s="4" t="s">
-        <v>383</v>
+      <c r="E293" s="18" t="s">
+        <v>667</v>
       </c>
       <c r="F293" s="4">
         <v>2</v>
@@ -19093,7 +19124,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="294" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A294" s="4">
         <v>24</v>
       </c>
@@ -19146,7 +19177,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="295" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A295" s="4">
         <v>24</v>
       </c>
@@ -19199,7 +19230,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="296" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A296" s="4">
         <v>24</v>
       </c>
@@ -19252,7 +19283,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="297" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A297" s="4">
         <v>24</v>
       </c>
@@ -19305,7 +19336,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
         <v>24</v>
       </c>
@@ -19358,7 +19389,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="299" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A299" s="4">
         <v>24</v>
       </c>
@@ -19411,7 +19442,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A300" s="4">
         <v>24</v>
       </c>
@@ -19464,7 +19495,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="301" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A301" s="4">
         <v>25</v>
       </c>
@@ -19520,7 +19551,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="302" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A302" s="4">
         <v>27</v>
       </c>
@@ -19576,7 +19607,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="303" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A303" s="4">
         <v>28</v>
       </c>
@@ -19632,7 +19663,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="304" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A304" s="4">
         <v>28</v>
       </c>
@@ -19688,7 +19719,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="305" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A305" s="4">
         <v>28</v>
       </c>
@@ -19744,7 +19775,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="306" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A306" s="4">
         <v>29</v>
       </c>
@@ -19797,7 +19828,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="307" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A307" s="4">
         <v>29</v>
       </c>
@@ -19850,7 +19881,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="308" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A308" s="4">
         <v>29</v>
       </c>
@@ -19903,7 +19934,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="309" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A309" s="4">
         <v>30</v>
       </c>
@@ -19956,7 +19987,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="310" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A310" s="4">
         <v>30</v>
       </c>
@@ -20009,7 +20040,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A311" s="4">
         <v>31</v>
       </c>
@@ -20062,7 +20093,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="312" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A312" s="4">
         <v>35</v>
       </c>
@@ -20118,7 +20149,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="313" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A313" s="4">
         <v>35</v>
       </c>
@@ -20174,7 +20205,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="314" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A314" s="4">
         <v>35</v>
       </c>
@@ -20230,7 +20261,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="315" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A315" s="4">
         <v>35</v>
       </c>
@@ -20289,7 +20320,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="316" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A316" s="4">
         <v>35</v>
       </c>
@@ -20348,7 +20379,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="317" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A317" s="4">
         <v>35</v>
       </c>
@@ -20404,7 +20435,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="318" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A318" s="4">
         <v>37</v>
       </c>
@@ -20457,7 +20488,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="319" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A319" s="4">
         <v>37</v>
       </c>
@@ -20510,7 +20541,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="320" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A320" s="4">
         <v>41</v>
       </c>
@@ -20566,7 +20597,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="321" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A321" s="4">
         <v>42</v>
       </c>
@@ -20619,7 +20650,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="322" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A322" s="4">
         <v>42</v>
       </c>
@@ -20672,7 +20703,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="323" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A323" s="4">
         <v>42</v>
       </c>
@@ -20725,7 +20756,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="324" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A324" s="4">
         <v>42</v>
       </c>
@@ -20778,7 +20809,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="325" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A325" s="4">
         <v>42</v>
       </c>
@@ -20831,7 +20862,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="326" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A326" s="4">
         <v>45</v>
       </c>
@@ -20887,7 +20918,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="327" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A327" s="4">
         <v>46</v>
       </c>
@@ -20940,7 +20971,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="328" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A328" s="4">
         <v>51</v>
       </c>
@@ -20993,7 +21024,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="329" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A329" s="4">
         <v>51</v>
       </c>
@@ -21046,7 +21077,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="330" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A330" s="4">
         <v>51</v>
       </c>
@@ -21099,7 +21130,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="331" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A331" s="4">
         <v>53</v>
       </c>
@@ -21152,7 +21183,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="332" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A332" s="4">
         <v>53</v>
       </c>
@@ -21205,7 +21236,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="333" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A333" s="4">
         <v>53</v>
       </c>
@@ -21258,7 +21289,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="334" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A334" s="4">
         <v>53</v>
       </c>
@@ -21311,7 +21342,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="335" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A335" s="4">
         <v>53</v>
       </c>
@@ -21364,7 +21395,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A336" s="4">
         <v>53</v>
       </c>
@@ -21417,7 +21448,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="337" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A337" s="4">
         <v>53</v>
       </c>
@@ -21470,7 +21501,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="338" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A338" s="4">
         <v>53</v>
       </c>
@@ -21526,7 +21557,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="339" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A339" s="4">
         <v>53</v>
       </c>
@@ -21582,7 +21613,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="340" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A340" s="4">
         <v>53</v>
       </c>
@@ -21635,7 +21666,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="341" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A341" s="4">
         <v>54</v>
       </c>
@@ -21691,7 +21722,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="342" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A342" s="4">
         <v>54</v>
       </c>
@@ -21750,7 +21781,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="343" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A343" s="4">
         <v>54</v>
       </c>
@@ -21809,7 +21840,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="344" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A344" s="4">
         <v>57</v>
       </c>
@@ -21865,7 +21896,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="345" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A345" s="4">
         <v>57</v>
       </c>
@@ -21921,7 +21952,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="346" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A346" s="4">
         <v>57</v>
       </c>
@@ -21977,7 +22008,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="347" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A347" s="4">
         <v>57</v>
       </c>
@@ -22033,7 +22064,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="348" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A348" s="4">
         <v>57</v>
       </c>
@@ -22089,7 +22120,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="349" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A349" s="4">
         <v>57</v>
       </c>
@@ -22145,7 +22176,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="350" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A350" s="4">
         <v>57</v>
       </c>
@@ -22201,7 +22232,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="351" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A351" s="4">
         <v>57</v>
       </c>
@@ -22257,7 +22288,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="352" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A352" s="4">
         <v>57</v>
       </c>
@@ -22313,7 +22344,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="353" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A353" s="4">
         <v>57</v>
       </c>
@@ -22369,7 +22400,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="354" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A354" s="4">
         <v>57</v>
       </c>
@@ -22425,7 +22456,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="355" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A355" s="4">
         <v>57</v>
       </c>
@@ -22481,7 +22512,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="356" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A356" s="4">
         <v>57</v>
       </c>
@@ -22537,7 +22568,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="357" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A357" s="4">
         <v>57</v>
       </c>
@@ -22593,7 +22624,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="358" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A358" s="4">
         <v>57</v>
       </c>
@@ -22649,7 +22680,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="359" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A359" s="4">
         <v>57</v>
       </c>
@@ -22705,7 +22736,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="360" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A360" s="4">
         <v>57</v>
       </c>
@@ -22761,7 +22792,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="361" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A361" s="4">
         <v>57</v>
       </c>
@@ -22817,7 +22848,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="362" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A362" s="4">
         <v>57</v>
       </c>
@@ -22873,7 +22904,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="363" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A363" s="4">
         <v>57</v>
       </c>
@@ -22929,7 +22960,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="364" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A364" s="4">
         <v>57</v>
       </c>
@@ -22985,7 +23016,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="365" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A365" s="4">
         <v>57</v>
       </c>
@@ -23041,7 +23072,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="366" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A366" s="4">
         <v>57</v>
       </c>
@@ -23097,7 +23128,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="367" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A367" s="4">
         <v>57</v>
       </c>
@@ -23153,7 +23184,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="368" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A368" s="4">
         <v>57</v>
       </c>
@@ -23209,7 +23240,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="369" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A369" s="4">
         <v>57</v>
       </c>
@@ -23265,7 +23296,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="370" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A370" s="4">
         <v>57</v>
       </c>
@@ -23321,7 +23352,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="371" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A371" s="4">
         <v>57</v>
       </c>
@@ -23377,7 +23408,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="372" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A372" s="4">
         <v>58</v>
       </c>
@@ -23436,7 +23467,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="373" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A373" s="4">
         <v>58</v>
       </c>
@@ -23495,7 +23526,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="374" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A374" s="4">
         <v>58</v>
       </c>
@@ -23551,7 +23582,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="375" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A375" s="4">
         <v>59</v>
       </c>
@@ -23607,7 +23638,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="376" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A376" s="4">
         <v>59</v>
       </c>
@@ -23663,7 +23694,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="377" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A377" s="4">
         <v>59</v>
       </c>
@@ -23719,7 +23750,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="378" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A378" s="4">
         <v>59</v>
       </c>
@@ -23775,7 +23806,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="379" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A379" s="4">
         <v>59</v>
       </c>
@@ -23828,7 +23859,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="380" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A380" s="4">
         <v>63</v>
       </c>
@@ -23884,7 +23915,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="381" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A381" s="4">
         <v>63</v>
       </c>
@@ -23940,7 +23971,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="382" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A382" s="4">
         <v>63</v>
       </c>
@@ -23996,7 +24027,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="383" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A383" s="4">
         <v>67</v>
       </c>
@@ -24052,7 +24083,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="384" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A384" s="4">
         <v>67</v>
       </c>
@@ -24108,7 +24139,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="385" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A385" s="4">
         <v>69</v>
       </c>
@@ -24164,7 +24195,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="386" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A386" s="4">
         <v>69</v>
       </c>
@@ -24220,7 +24251,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="387" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A387" s="4">
         <v>69</v>
       </c>
@@ -24276,7 +24307,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="388" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A388" s="4">
         <v>69</v>
       </c>
@@ -24332,7 +24363,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="389" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A389" s="4">
         <v>71</v>
       </c>
@@ -24388,7 +24419,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="390" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A390" s="4">
         <v>71</v>
       </c>
@@ -24444,7 +24475,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="391" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A391" s="4">
         <v>71</v>
       </c>
@@ -24500,7 +24531,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="392" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A392" s="4">
         <v>74</v>
       </c>
@@ -24556,7 +24587,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="393" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A393" s="4">
         <v>75</v>
       </c>
@@ -24612,7 +24643,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="394" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A394" s="4">
         <v>75</v>
       </c>
@@ -24668,7 +24699,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="395" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A395" s="4">
         <v>75</v>
       </c>
@@ -24724,7 +24755,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="396" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A396" s="4">
         <v>75</v>
       </c>
@@ -24780,7 +24811,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="397" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A397" s="4">
         <v>77</v>
       </c>
@@ -24833,7 +24864,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="398" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A398" s="4">
         <v>78</v>
       </c>
@@ -24846,8 +24877,8 @@
       <c r="D398" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="E398" s="4" t="s">
-        <v>605</v>
+      <c r="E398" s="18" t="s">
+        <v>668</v>
       </c>
       <c r="F398" s="4">
         <v>1</v>
@@ -24889,7 +24920,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="399" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A399" s="4">
         <v>78</v>
       </c>
@@ -24902,8 +24933,8 @@
       <c r="D399" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="E399" s="4" t="s">
-        <v>606</v>
+      <c r="E399" s="18" t="s">
+        <v>669</v>
       </c>
       <c r="F399" s="4">
         <v>2</v>
@@ -24945,7 +24976,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="400" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A400" s="4">
         <v>78</v>
       </c>
@@ -24958,8 +24989,8 @@
       <c r="D400" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="E400" s="4" t="s">
-        <v>607</v>
+      <c r="E400" s="18" t="s">
+        <v>670</v>
       </c>
       <c r="F400" s="4">
         <v>3</v>
@@ -25001,7 +25032,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="401" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A401" s="4">
         <v>78</v>
       </c>
@@ -25014,8 +25045,8 @@
       <c r="D401" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="E401" s="4" t="s">
-        <v>608</v>
+      <c r="E401" s="18" t="s">
+        <v>671</v>
       </c>
       <c r="F401" s="4">
         <v>4</v>
@@ -25057,7 +25088,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="402" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A402" s="4">
         <v>79</v>
       </c>
@@ -25113,7 +25144,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="403" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A403" s="4">
         <v>79</v>
       </c>
@@ -25169,7 +25200,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="404" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A404" s="4">
         <v>79</v>
       </c>
@@ -25225,7 +25256,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="405" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A405" s="4">
         <v>79</v>
       </c>
@@ -25281,7 +25312,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="406" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A406" s="4">
         <v>79</v>
       </c>
@@ -25337,7 +25368,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="407" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A407" s="4">
         <v>79</v>
       </c>
@@ -25393,7 +25424,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="408" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A408" s="4">
         <v>79</v>
       </c>
@@ -25449,7 +25480,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="409" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A409" s="4">
         <v>79</v>
       </c>
@@ -25505,7 +25536,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="410" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A410" s="4">
         <v>79</v>
       </c>
@@ -25561,7 +25592,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="411" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A411" s="4">
         <v>79</v>
       </c>
@@ -25617,7 +25648,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="412" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A412" s="4">
         <v>79</v>
       </c>
@@ -25673,7 +25704,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="413" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A413" s="4">
         <v>79</v>
       </c>
@@ -25729,7 +25760,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="414" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A414" s="4">
         <v>79</v>
       </c>
@@ -25785,7 +25816,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="415" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A415" s="4">
         <v>80</v>
       </c>
@@ -25841,7 +25872,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="416" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A416" s="4">
         <v>81</v>
       </c>
@@ -25897,7 +25928,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="417" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A417" s="4">
         <v>81</v>
       </c>
@@ -25953,7 +25984,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="418" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A418" s="4">
         <v>81</v>
       </c>
@@ -26009,7 +26040,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="419" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A419" s="4">
         <v>81</v>
       </c>
@@ -26065,7 +26096,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="420" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A420" s="4">
         <v>81</v>
       </c>
@@ -26121,7 +26152,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="421" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A421" s="4">
         <v>86</v>
       </c>
@@ -26177,7 +26208,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="422" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A422" s="4">
         <v>87</v>
       </c>
@@ -26233,7 +26264,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="423" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A423" s="4">
         <v>87</v>
       </c>
@@ -26289,7 +26320,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="424" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A424" s="4">
         <v>89</v>
       </c>
@@ -26342,7 +26373,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="425" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A425" s="4">
         <v>90</v>
       </c>
@@ -26398,7 +26429,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="426" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A426" s="4">
         <v>90</v>
       </c>
@@ -26457,7 +26488,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="427" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A427" s="4">
         <v>90</v>
       </c>
@@ -26516,7 +26547,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="428" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A428" s="4">
         <v>90</v>
       </c>
@@ -26575,7 +26606,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="429" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A429" s="4">
         <v>90</v>
       </c>
@@ -26631,7 +26662,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="430" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A430" s="4">
         <v>90</v>
       </c>
@@ -26687,7 +26718,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="431" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A431" s="4">
         <v>93</v>
       </c>
@@ -26743,7 +26774,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="432" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A432" s="4">
         <v>96</v>
       </c>
@@ -26796,7 +26827,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="433" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A433" s="4">
         <v>96</v>
       </c>
@@ -26849,7 +26880,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="434" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A434" s="4">
         <v>97</v>
       </c>
@@ -26908,7 +26939,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="435" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A435" s="4">
         <v>98</v>
       </c>
@@ -26968,13 +26999,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T435">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="7020"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T435"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Paolo/Scripts/Bases/dfunido2.xlsx
+++ b/Paolo/Scripts/Bases/dfunido2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paolo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NUEVO D\REPOSITORIO_GITHUB\OEFA_SMER\Paolo\Scripts\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,11 +18,10 @@
     <sheet name="leyenda" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$T$525</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$T$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="9ELmxrKieRuHcXA8LvgZCONKsJEP1YZN5wfz9RZwZjg="/>
@@ -2541,8 +2540,8 @@
   <dimension ref="A1:T525"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C301" sqref="C301"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32405,7 +32404,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T1"/>
+  <autoFilter ref="A1:T525"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Paolo/Scripts/Bases/dfunido2.xlsx
+++ b/Paolo/Scripts/Bases/dfunido2.xlsx
@@ -2541,7 +2541,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B194" sqref="B194"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
